--- a/biology/Zoologie/Deroceras/Deroceras.xlsx
+++ b/biology/Zoologie/Deroceras/Deroceras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Deroceras sont un genre de petites limaces appartenant à la famille des agriolimacidés, assez récemment séparée de la famille des limacidés. Ils se rencontrent dans une grande diversité d'habitats et semblent surtout consommateurs de végétaux verts. De ce fait, certains d'entre eux, et plus particulièrement Deroceras reticulatum, peuvent causer des dégâts sérieux dans les jardins et en milieu agricole.
 La systématique de ce genre est difficile, et la détermination spécifique nécessite souvent la dissection et l'examen de l'appareil génital. Plusieurs espèces ont été récemment décrites ; il est probable qu'il reste encore de nouvelles espèces à découvrir.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deroceras vient du grec dere, « cou », et ceras, « corne », en référence aux longs tentacules oculaires qui ressemblent aux cornes)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deroceras vient du grec dere, « cou », et ceras, « corne », en référence aux longs tentacules oculaires qui ressemblent aux cornes).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>N.B. : cette liste est sans doute incomplète.
-Deroceras adolphi  (Wiktor 1998) - Loche de Ligué[2]
+Deroceras adolphi  (Wiktor 1998) - Loche de Ligué
 Deroceras agreste (Linné 1758) - Limace agreste ou Loche blanche
 Deroceras hesperium
 Deroceras heterura
